--- a/pcb/PickAndPlace.xlsx
+++ b/pcb/PickAndPlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-13" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-14" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/pcb/PickAndPlace.xlsx
+++ b/pcb/PickAndPlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-14" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-15" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -244,40 +244,40 @@
     <t>5.5mm</t>
   </si>
   <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>J-S1206B4SW3-G2-A8</t>
-  </si>
-  <si>
-    <t>LED1206-RD</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RS-06K151JT_C140047</t>
+  </si>
+  <si>
+    <t>R1206</t>
+  </si>
+  <si>
+    <t>74.93mm</t>
+  </si>
+  <si>
+    <t>-38.227mm</t>
+  </si>
+  <si>
+    <t>73.451mm</t>
+  </si>
+  <si>
+    <t>150Ω</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>YLED1206R</t>
+  </si>
+  <si>
+    <t>LED1206-FD</t>
   </si>
   <si>
     <t>80.264mm</t>
   </si>
   <si>
-    <t>-38.227mm</t>
-  </si>
-  <si>
-    <t>81.781mm</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>RS-06K151JT_C140047</t>
-  </si>
-  <si>
-    <t>R1206</t>
-  </si>
-  <si>
-    <t>74.93mm</t>
-  </si>
-  <si>
-    <t>73.451mm</t>
-  </si>
-  <si>
-    <t>150Ω</t>
+    <t>78.747mm</t>
   </si>
 </sst>
 </file>
@@ -1314,39 +1314,39 @@
         <v>20</v>
       </c>
       <c r="L15">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
         <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
         <v>81</v>
@@ -1364,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/PickAndPlace.xlsx
+++ b/pcb/PickAndPlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-15" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-17" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/pcb/PickAndPlace.xlsx
+++ b/pcb/PickAndPlace.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-17" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB_2025-10-24" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
